--- a/Code/Results/Cases/Case_9_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_41/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.0486172444842</v>
+        <v>21.0920827251835</v>
       </c>
       <c r="C2">
-        <v>13.54191443820799</v>
+        <v>13.50908333278092</v>
       </c>
       <c r="D2">
-        <v>5.617106698953305</v>
+        <v>5.649467136655942</v>
       </c>
       <c r="E2">
-        <v>8.278847452142051</v>
+        <v>8.215031266706545</v>
       </c>
       <c r="F2">
-        <v>20.53398368099066</v>
+        <v>20.03835730152167</v>
       </c>
       <c r="G2">
-        <v>22.71557610559798</v>
+        <v>21.37192441040355</v>
       </c>
       <c r="H2">
-        <v>2.738294952067952</v>
+        <v>2.626414999738326</v>
       </c>
       <c r="I2">
-        <v>3.385726827289655</v>
+        <v>3.232166959747732</v>
       </c>
       <c r="J2">
-        <v>9.261067103887264</v>
+        <v>9.438222362009686</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.422073831932012</v>
+        <v>11.80453905028669</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.623385117222206</v>
       </c>
       <c r="N2">
-        <v>6.760408016825632</v>
+        <v>6.375905456901927</v>
       </c>
       <c r="O2">
-        <v>12.97662527944316</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.943401279577534</v>
       </c>
       <c r="Q2">
-        <v>15.05068934342159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>13.02220690233699</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>14.660101501546</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.66120030369176</v>
+        <v>19.7131233668144</v>
       </c>
       <c r="C3">
-        <v>13.04827955914597</v>
+        <v>12.90610735587081</v>
       </c>
       <c r="D3">
-        <v>5.524072348013457</v>
+        <v>5.559340717277871</v>
       </c>
       <c r="E3">
-        <v>8.261679649145396</v>
+        <v>8.206281916262826</v>
       </c>
       <c r="F3">
-        <v>20.45987811542425</v>
+        <v>19.99852571061075</v>
       </c>
       <c r="G3">
-        <v>22.55245015255448</v>
+        <v>21.30453934316205</v>
       </c>
       <c r="H3">
-        <v>2.932871603723923</v>
+        <v>2.807917349793406</v>
       </c>
       <c r="I3">
-        <v>3.543663492245393</v>
+        <v>3.373024735321844</v>
       </c>
       <c r="J3">
-        <v>9.319040520687496</v>
+        <v>9.467740884269411</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.402525459316813</v>
+        <v>12.00400556727422</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.820509235194143</v>
       </c>
       <c r="N3">
-        <v>6.576491815135832</v>
+        <v>6.355289762783162</v>
       </c>
       <c r="O3">
-        <v>12.31786493488636</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.756799047419845</v>
       </c>
       <c r="Q3">
-        <v>15.08974627965628</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>12.34994084332767</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>14.71967633037544</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.75651133570333</v>
+        <v>18.81399949029318</v>
       </c>
       <c r="C4">
-        <v>12.73811588350239</v>
+        <v>12.52603524693715</v>
       </c>
       <c r="D4">
-        <v>5.467148900572102</v>
+        <v>5.504434049367824</v>
       </c>
       <c r="E4">
-        <v>8.250707638601682</v>
+        <v>8.200615198364401</v>
       </c>
       <c r="F4">
-        <v>20.42363061398817</v>
+        <v>19.98174241810234</v>
       </c>
       <c r="G4">
-        <v>22.46593319510026</v>
+        <v>21.2779728037543</v>
       </c>
       <c r="H4">
-        <v>3.056605124779887</v>
+        <v>2.923364705796868</v>
       </c>
       <c r="I4">
-        <v>3.644744023492139</v>
+        <v>3.463459503387387</v>
       </c>
       <c r="J4">
-        <v>9.357926619185207</v>
+        <v>9.487285214853955</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.389970790320882</v>
+        <v>12.13099870043405</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.957184645759348</v>
       </c>
       <c r="N4">
-        <v>6.461714819542487</v>
+        <v>6.342201391554632</v>
       </c>
       <c r="O4">
-        <v>11.89558153503794</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.640773060822659</v>
       </c>
       <c r="Q4">
-        <v>15.12088735789183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>11.91860966833266</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>14.76205221506389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.37756439421269</v>
+        <v>18.43388072630763</v>
       </c>
       <c r="C5">
-        <v>12.61919513829191</v>
+        <v>12.37828319863605</v>
       </c>
       <c r="D5">
-        <v>5.444330814868229</v>
+        <v>5.482487182525425</v>
       </c>
       <c r="E5">
-        <v>8.245329600013129</v>
+        <v>8.197484021504421</v>
       </c>
       <c r="F5">
-        <v>20.40341847710996</v>
+        <v>19.96932441444258</v>
       </c>
       <c r="G5">
-        <v>22.42051172014885</v>
+        <v>21.25750379266723</v>
       </c>
       <c r="H5">
-        <v>3.108372522145128</v>
+        <v>2.971682174252003</v>
       </c>
       <c r="I5">
-        <v>3.689502243688806</v>
+        <v>3.504284855387167</v>
       </c>
       <c r="J5">
-        <v>9.372387993003144</v>
+        <v>9.493463971439436</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.384564104856979</v>
+        <v>12.17931129289346</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.01482902659582</v>
       </c>
       <c r="N5">
-        <v>6.4163500809405</v>
+        <v>6.3366373521262</v>
       </c>
       <c r="O5">
-        <v>11.72065920703238</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.594915252579087</v>
       </c>
       <c r="Q5">
-        <v>15.1298202669499</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.73976357138357</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>14.7754239806143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.31367548931189</v>
+        <v>18.36935774366763</v>
       </c>
       <c r="C6">
-        <v>12.61055447376797</v>
+        <v>12.36517333824058</v>
       </c>
       <c r="D6">
-        <v>5.440924722556098</v>
+        <v>5.47921799759028</v>
       </c>
       <c r="E6">
-        <v>8.243459278715257</v>
+        <v>8.196050772739307</v>
       </c>
       <c r="F6">
-        <v>20.39076182200206</v>
+        <v>19.95826224689846</v>
       </c>
       <c r="G6">
-        <v>22.39664669596358</v>
+        <v>21.23816578559169</v>
       </c>
       <c r="H6">
-        <v>3.117349652650963</v>
+        <v>2.980074302032156</v>
       </c>
       <c r="I6">
-        <v>3.700236123396403</v>
+        <v>3.514952093224464</v>
       </c>
       <c r="J6">
-        <v>9.372157982943703</v>
+        <v>9.491900261992171</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.383477579098154</v>
+        <v>12.18183049929116</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.02233532159717</v>
       </c>
       <c r="N6">
-        <v>6.411032611686922</v>
+        <v>6.335562680265459</v>
       </c>
       <c r="O6">
-        <v>11.69318192748275</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.589410448972956</v>
       </c>
       <c r="Q6">
-        <v>15.12468504241155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.71156363176799</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>14.77124892780726</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.74977469365093</v>
+        <v>18.8071018933154</v>
       </c>
       <c r="C7">
-        <v>12.76683700347871</v>
+        <v>12.55214470872774</v>
       </c>
       <c r="D7">
-        <v>5.467869801114093</v>
+        <v>5.507530623041597</v>
       </c>
       <c r="E7">
-        <v>8.248017183969933</v>
+        <v>8.19784628416715</v>
       </c>
       <c r="F7">
-        <v>20.39765089976828</v>
+        <v>19.94424399567955</v>
       </c>
       <c r="G7">
-        <v>22.42032347085273</v>
+        <v>21.30198587666194</v>
       </c>
       <c r="H7">
-        <v>3.05813963656404</v>
+        <v>2.925349554851739</v>
       </c>
       <c r="I7">
-        <v>3.653907334277523</v>
+        <v>3.4745983918183</v>
       </c>
       <c r="J7">
-        <v>9.350811429839638</v>
+        <v>9.448448729515949</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.389434231855581</v>
+        <v>12.1115902289123</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.948935434266664</v>
       </c>
       <c r="N7">
-        <v>6.467160515251755</v>
+        <v>6.341452919344293</v>
       </c>
       <c r="O7">
-        <v>11.89811982143907</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.646072202711102</v>
       </c>
       <c r="Q7">
-        <v>15.10266696921725</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>11.92121077319526</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>14.73494214128024</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.57917264029814</v>
+        <v>20.62486467530169</v>
       </c>
       <c r="C8">
-        <v>13.41210368147464</v>
+        <v>13.33339989727556</v>
       </c>
       <c r="D8">
-        <v>5.586343446934951</v>
+        <v>5.627492497491943</v>
       </c>
       <c r="E8">
-        <v>8.269690185192486</v>
+        <v>8.208186323548318</v>
       </c>
       <c r="F8">
-        <v>20.47286599376224</v>
+        <v>19.94956009059607</v>
       </c>
       <c r="G8">
-        <v>22.5977305562578</v>
+        <v>21.51514855728615</v>
       </c>
       <c r="H8">
-        <v>2.805534864193504</v>
+        <v>2.690759979991316</v>
       </c>
       <c r="I8">
-        <v>3.450240072841129</v>
+        <v>3.294281495092644</v>
       </c>
       <c r="J8">
-        <v>9.270743032395245</v>
+        <v>9.335160165445162</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.414953524290912</v>
+        <v>11.8394807917511</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.667749393547227</v>
       </c>
       <c r="N8">
-        <v>6.70515054144645</v>
+        <v>6.367620117871724</v>
       </c>
       <c r="O8">
-        <v>12.75926672743621</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.887294192537994</v>
       </c>
       <c r="Q8">
-        <v>15.03851465015608</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.80094460674892</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>14.62451980790714</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.7525516254644</v>
+        <v>23.77864739618574</v>
       </c>
       <c r="C9">
-        <v>14.56520694081426</v>
+        <v>14.73918120386212</v>
       </c>
       <c r="D9">
-        <v>5.817589095958166</v>
+        <v>5.85465954868806</v>
       </c>
       <c r="E9">
-        <v>8.31335963864429</v>
+        <v>8.23137232604123</v>
       </c>
       <c r="F9">
-        <v>20.74125753063903</v>
+        <v>20.11261570522471</v>
       </c>
       <c r="G9">
-        <v>23.13633218521629</v>
+        <v>21.88167142425449</v>
       </c>
       <c r="H9">
-        <v>2.341981236891132</v>
+        <v>2.25872731294441</v>
       </c>
       <c r="I9">
-        <v>3.06899442663842</v>
+        <v>2.953400691302108</v>
       </c>
       <c r="J9">
-        <v>9.153793832030287</v>
+        <v>9.249487292812249</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.461342016889539</v>
+        <v>11.38368505696704</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>9.268965026720256</v>
       </c>
       <c r="N9">
-        <v>7.145004913381429</v>
+        <v>6.417150628036071</v>
       </c>
       <c r="O9">
-        <v>14.29375503149825</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.336218232679855</v>
       </c>
       <c r="Q9">
-        <v>15.00480799709585</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>14.36509701574137</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>14.52264217664383</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.84217417300883</v>
+        <v>25.85453285299801</v>
       </c>
       <c r="C10">
-        <v>15.45044456204605</v>
+        <v>15.76865549110213</v>
       </c>
       <c r="D10">
-        <v>5.958251352287887</v>
+        <v>6.005866779051853</v>
       </c>
       <c r="E10">
-        <v>8.315308451443276</v>
+        <v>8.221378293596961</v>
       </c>
       <c r="F10">
-        <v>20.84161234101351</v>
+        <v>20.07365738016082</v>
       </c>
       <c r="G10">
-        <v>23.38939208507568</v>
+        <v>22.42856129400525</v>
       </c>
       <c r="H10">
-        <v>2.048042424967877</v>
+        <v>1.989097310044194</v>
       </c>
       <c r="I10">
-        <v>2.817377977107379</v>
+        <v>2.733596823470683</v>
       </c>
       <c r="J10">
-        <v>9.049847127071407</v>
+        <v>8.991979028773555</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.49890957733405</v>
+        <v>11.01524676685182</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>8.991976492458242</v>
       </c>
       <c r="N10">
-        <v>7.398819451680064</v>
+        <v>6.458540290075561</v>
       </c>
       <c r="O10">
-        <v>15.28818955988268</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.595910081696065</v>
       </c>
       <c r="Q10">
-        <v>14.92989021336901</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>15.37655294623683</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>14.34691527734481</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.81875965281116</v>
+        <v>26.8285245160861</v>
       </c>
       <c r="C11">
-        <v>16.47276357008415</v>
+        <v>16.73522542194719</v>
       </c>
       <c r="D11">
-        <v>5.774062167385662</v>
+        <v>5.841774877041052</v>
       </c>
       <c r="E11">
-        <v>8.16784298704896</v>
+        <v>8.091449751975368</v>
       </c>
       <c r="F11">
-        <v>19.70960312357452</v>
+        <v>18.8869557655655</v>
       </c>
       <c r="G11">
-        <v>21.78432298547639</v>
+        <v>21.78102092323039</v>
       </c>
       <c r="H11">
-        <v>2.94348432779574</v>
+        <v>2.910852302224286</v>
       </c>
       <c r="I11">
-        <v>2.755193509422164</v>
+        <v>2.688677717842562</v>
       </c>
       <c r="J11">
-        <v>8.716789152432119</v>
+        <v>8.417754911072937</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.617956162780751</v>
+        <v>10.58691977209818</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.485596767683068</v>
       </c>
       <c r="N11">
-        <v>7.012222689967096</v>
+        <v>6.594097356009308</v>
       </c>
       <c r="O11">
-        <v>15.37611537550842</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.188711996988211</v>
       </c>
       <c r="Q11">
-        <v>14.1761647956245</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>15.45623950290506</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>13.55148705723873</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.22258713438933</v>
+        <v>27.23349226680385</v>
       </c>
       <c r="C12">
-        <v>17.13420749460241</v>
+        <v>17.32031203827247</v>
       </c>
       <c r="D12">
-        <v>5.58809614971378</v>
+        <v>5.661006728560804</v>
       </c>
       <c r="E12">
-        <v>8.169640482922972</v>
+        <v>8.104637548553878</v>
       </c>
       <c r="F12">
-        <v>18.76690042732235</v>
+        <v>17.97423144441365</v>
       </c>
       <c r="G12">
-        <v>20.42545544869247</v>
+        <v>20.90998723750773</v>
       </c>
       <c r="H12">
-        <v>4.267735427437361</v>
+        <v>4.246820907637221</v>
       </c>
       <c r="I12">
-        <v>2.735004580363074</v>
+        <v>2.672548544251565</v>
       </c>
       <c r="J12">
-        <v>8.469618884239409</v>
+        <v>8.13925754436257</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.7733846936208</v>
+        <v>10.37503902003114</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>8.165682830214209</v>
       </c>
       <c r="N12">
-        <v>6.633566603083827</v>
+        <v>6.759593303153568</v>
       </c>
       <c r="O12">
-        <v>15.23342703470373</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.791314698840961</v>
       </c>
       <c r="Q12">
-        <v>13.58261786940083</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>15.30280562529768</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>12.98145039274143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.22227037980815</v>
+        <v>27.23766097158776</v>
       </c>
       <c r="C13">
-        <v>17.60854934805884</v>
+        <v>17.70590649916897</v>
       </c>
       <c r="D13">
-        <v>5.38992442217794</v>
+        <v>5.452532262811029</v>
       </c>
       <c r="E13">
-        <v>8.27786060703273</v>
+        <v>8.222327395578384</v>
       </c>
       <c r="F13">
-        <v>17.87441759311427</v>
+        <v>17.20372211982422</v>
       </c>
       <c r="G13">
-        <v>19.09952661035127</v>
+        <v>19.56403933645884</v>
       </c>
       <c r="H13">
-        <v>5.664699747834529</v>
+        <v>5.647582193513352</v>
       </c>
       <c r="I13">
-        <v>2.760890297223605</v>
+        <v>2.69468550872287</v>
       </c>
       <c r="J13">
-        <v>8.263626678114125</v>
+        <v>8.052109841543951</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.958365929425084</v>
+        <v>10.27645135175228</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>7.973356111164347</v>
       </c>
       <c r="N13">
-        <v>6.244315758442633</v>
+        <v>6.949061968825947</v>
       </c>
       <c r="O13">
-        <v>14.90680176704446</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.383676696749532</v>
       </c>
       <c r="Q13">
-        <v>13.05042349462366</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>14.96194099400621</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>12.54255722587745</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.03905804243685</v>
+        <v>27.05911334576858</v>
       </c>
       <c r="C14">
-        <v>17.87003459113922</v>
+        <v>17.89851540591129</v>
       </c>
       <c r="D14">
-        <v>5.246570348777413</v>
+        <v>5.296216589142215</v>
       </c>
       <c r="E14">
-        <v>8.413554669112083</v>
+        <v>8.363763707568813</v>
       </c>
       <c r="F14">
-        <v>17.27384472864712</v>
+        <v>16.72352311531053</v>
       </c>
       <c r="G14">
-        <v>18.18245702939901</v>
+        <v>18.41644661017133</v>
       </c>
       <c r="H14">
-        <v>6.662677759139587</v>
+        <v>6.646310641537513</v>
       </c>
       <c r="I14">
-        <v>2.802789944446997</v>
+        <v>2.731062893245569</v>
       </c>
       <c r="J14">
-        <v>8.138752408614362</v>
+        <v>8.056649197516226</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.10563238169355</v>
+        <v>10.249574827182</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>7.904067450776014</v>
       </c>
       <c r="N14">
-        <v>5.971335649468964</v>
+        <v>7.095899732893883</v>
       </c>
       <c r="O14">
-        <v>14.59152520830631</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>6.098671418822856</v>
       </c>
       <c r="Q14">
-        <v>12.70714026512683</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>14.63483003773099</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>12.29011488986705</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.90658967196472</v>
+        <v>26.92849977985566</v>
       </c>
       <c r="C15">
-        <v>17.90345828512291</v>
+        <v>17.91282332015794</v>
       </c>
       <c r="D15">
-        <v>5.209383055085503</v>
+        <v>5.253607190072557</v>
       </c>
       <c r="E15">
-        <v>8.452377122535808</v>
+        <v>8.404606974002499</v>
       </c>
       <c r="F15">
-        <v>17.13233336784763</v>
+        <v>16.62615567981154</v>
       </c>
       <c r="G15">
-        <v>17.95571799610474</v>
+        <v>18.04637032764906</v>
       </c>
       <c r="H15">
-        <v>6.896174281804676</v>
+        <v>6.879413406878894</v>
       </c>
       <c r="I15">
-        <v>2.827697746497845</v>
+        <v>2.753753076098015</v>
       </c>
       <c r="J15">
-        <v>8.115159790088752</v>
+        <v>8.084968888158492</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.140128099221518</v>
+        <v>10.25516462046705</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>7.910280261716402</v>
       </c>
       <c r="N15">
-        <v>5.903077439284173</v>
+        <v>7.129418275656151</v>
       </c>
       <c r="O15">
-        <v>14.47665417854551</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>6.027690880078692</v>
       </c>
       <c r="Q15">
-        <v>12.63210648489428</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>14.5162259422198</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>12.24807254425837</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.05811232256985</v>
+        <v>26.08646983688246</v>
       </c>
       <c r="C16">
-        <v>17.47832016829868</v>
+        <v>17.46883902440095</v>
       </c>
       <c r="D16">
-        <v>5.187329000869154</v>
+        <v>5.212944054052899</v>
       </c>
       <c r="E16">
-        <v>8.419261260091893</v>
+        <v>8.37941118759155</v>
       </c>
       <c r="F16">
-        <v>17.25409242228463</v>
+        <v>16.87006102393887</v>
       </c>
       <c r="G16">
-        <v>18.07296343289632</v>
+        <v>17.47180359301242</v>
       </c>
       <c r="H16">
-        <v>6.706124316082204</v>
+        <v>6.683538852401953</v>
       </c>
       <c r="I16">
-        <v>2.935774370622625</v>
+        <v>2.846930650957518</v>
       </c>
       <c r="J16">
-        <v>8.199314763894632</v>
+        <v>8.360132055175198</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.079307507847774</v>
+        <v>10.37187730391798</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>8.120531625420178</v>
       </c>
       <c r="N16">
-        <v>5.867543881989603</v>
+        <v>7.063858458638545</v>
       </c>
       <c r="O16">
-        <v>14.11453918255211</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.993755220356677</v>
       </c>
       <c r="Q16">
-        <v>12.76472123007726</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>14.14729709584853</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>12.47036638508177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.49388161617565</v>
+        <v>25.52444245762747</v>
       </c>
       <c r="C17">
-        <v>17.0025883905125</v>
+        <v>17.01206501650532</v>
       </c>
       <c r="D17">
-        <v>5.246968671868825</v>
+        <v>5.267038444368991</v>
       </c>
       <c r="E17">
-        <v>8.313214771376135</v>
+        <v>8.275130224980018</v>
       </c>
       <c r="F17">
-        <v>17.66278164019779</v>
+        <v>17.29873002195073</v>
       </c>
       <c r="G17">
-        <v>18.64828044773047</v>
+        <v>17.73324674137814</v>
       </c>
       <c r="H17">
-        <v>6.00177159765131</v>
+        <v>5.973032092843653</v>
       </c>
       <c r="I17">
-        <v>2.997146132961942</v>
+        <v>2.900390166354048</v>
       </c>
       <c r="J17">
-        <v>8.328753375283462</v>
+        <v>8.565327438477576</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.950390463551233</v>
+        <v>10.49174859518856</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>8.306547140624012</v>
       </c>
       <c r="N17">
-        <v>5.985445720012704</v>
+        <v>6.932727313772504</v>
       </c>
       <c r="O17">
-        <v>14.00758051047877</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>6.118712852722902</v>
       </c>
       <c r="Q17">
-        <v>13.04524328681353</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>14.04189138435309</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>12.76484392523075</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.12432717073817</v>
+        <v>25.15390959982342</v>
       </c>
       <c r="C18">
-        <v>16.41498370646804</v>
+        <v>16.48148671328965</v>
       </c>
       <c r="D18">
-        <v>5.38499735139571</v>
+        <v>5.405317908867867</v>
       </c>
       <c r="E18">
-        <v>8.188517206463573</v>
+        <v>8.145676036995814</v>
       </c>
       <c r="F18">
-        <v>18.38966531348105</v>
+        <v>17.98318372695924</v>
       </c>
       <c r="G18">
-        <v>19.71866691813689</v>
+        <v>18.60854774538601</v>
       </c>
       <c r="H18">
-        <v>4.811270293111889</v>
+        <v>4.773637207749672</v>
       </c>
       <c r="I18">
-        <v>3.013386298529257</v>
+        <v>2.911604246818148</v>
       </c>
       <c r="J18">
-        <v>8.519245991493701</v>
+        <v>8.770342069590418</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.772283450742952</v>
+        <v>10.65376926866695</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>8.513695678212784</v>
       </c>
       <c r="N18">
-        <v>6.256050106376616</v>
+        <v>6.752390306661328</v>
       </c>
       <c r="O18">
-        <v>14.10686930819409</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.402304928624897</v>
       </c>
       <c r="Q18">
-        <v>13.50267771872027</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>14.1501408680116</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>13.19049062544665</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.9428898250218</v>
+        <v>24.96916358284161</v>
       </c>
       <c r="C19">
-        <v>15.85514434733103</v>
+        <v>16.0023033930517</v>
       </c>
       <c r="D19">
-        <v>5.58053575699875</v>
+        <v>5.604187064068599</v>
       </c>
       <c r="E19">
-        <v>8.144766537812876</v>
+        <v>8.088907714011512</v>
       </c>
       <c r="F19">
-        <v>19.29433039155994</v>
+        <v>18.80603471162961</v>
       </c>
       <c r="G19">
-        <v>21.05007225140461</v>
+        <v>19.79007483410999</v>
       </c>
       <c r="H19">
-        <v>3.443091528766331</v>
+        <v>3.391606650529342</v>
       </c>
       <c r="I19">
-        <v>3.008649049897629</v>
+        <v>2.908422761406059</v>
       </c>
       <c r="J19">
-        <v>8.738657814744055</v>
+        <v>8.969429099644053</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.610406701535281</v>
+        <v>10.84787080368145</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>8.736787484413258</v>
       </c>
       <c r="N19">
-        <v>6.651324637954348</v>
+        <v>6.585281362319921</v>
       </c>
       <c r="O19">
-        <v>14.36717829830007</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.815096663800404</v>
       </c>
       <c r="Q19">
-        <v>14.05146477373549</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>14.4241913200651</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>13.67864798383116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.3068199718013</v>
+        <v>25.32345393489976</v>
       </c>
       <c r="C20">
-        <v>15.3086735349833</v>
+        <v>15.60036386812746</v>
       </c>
       <c r="D20">
-        <v>5.923099052250825</v>
+        <v>5.959631923424847</v>
       </c>
       <c r="E20">
-        <v>8.306629206805946</v>
+        <v>8.217204495197949</v>
       </c>
       <c r="F20">
-        <v>20.72977341831737</v>
+        <v>20.04613390368132</v>
       </c>
       <c r="G20">
-        <v>23.17745465525701</v>
+        <v>21.9010897375539</v>
       </c>
       <c r="H20">
-        <v>2.125383980364398</v>
+        <v>2.05858911099684</v>
       </c>
       <c r="I20">
-        <v>2.912141618961946</v>
+        <v>2.824442820474238</v>
       </c>
       <c r="J20">
-        <v>9.052178183773689</v>
+        <v>9.143686033634935</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.488902855530798</v>
+        <v>11.09080800868422</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>9.038106338432888</v>
       </c>
       <c r="N20">
-        <v>7.346846898299673</v>
+        <v>6.448751885989727</v>
       </c>
       <c r="O20">
-        <v>15.04347393977613</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.541092993296436</v>
       </c>
       <c r="Q20">
-        <v>14.88760128228096</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>15.12647862769649</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>14.3690168109255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.8182972571831</v>
+        <v>26.82077362587976</v>
       </c>
       <c r="C21">
-        <v>15.84991298732253</v>
+        <v>16.21524687448241</v>
       </c>
       <c r="D21">
-        <v>6.074866439087339</v>
+        <v>6.164503435708752</v>
       </c>
       <c r="E21">
-        <v>8.351505668577378</v>
+        <v>8.245643844907063</v>
       </c>
       <c r="F21">
-        <v>21.04700685202805</v>
+        <v>20.00572800693222</v>
       </c>
       <c r="G21">
-        <v>23.72597408537775</v>
+        <v>23.93859636216893</v>
       </c>
       <c r="H21">
-        <v>1.864904844391691</v>
+        <v>1.823416342287538</v>
       </c>
       <c r="I21">
-        <v>2.713922672929037</v>
+        <v>2.656525253995678</v>
       </c>
       <c r="J21">
-        <v>9.033476887163747</v>
+        <v>8.492427534946453</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.507990291794544</v>
+        <v>10.8188267006444</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>8.837287441378818</v>
       </c>
       <c r="N21">
-        <v>7.626003470260201</v>
+        <v>6.46423045191509</v>
       </c>
       <c r="O21">
-        <v>15.83520469726261</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.832221863698305</v>
       </c>
       <c r="Q21">
-        <v>14.98206563733344</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>15.93613931841522</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>14.18797091323669</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.76792071704422</v>
+        <v>27.76150967171571</v>
       </c>
       <c r="C22">
-        <v>16.19627348082579</v>
+        <v>16.59971133372867</v>
       </c>
       <c r="D22">
-        <v>6.157522465686085</v>
+        <v>6.285727787216352</v>
       </c>
       <c r="E22">
-        <v>8.369566399100586</v>
+        <v>8.255506279994691</v>
       </c>
       <c r="F22">
-        <v>21.22663116438205</v>
+        <v>19.93704912906627</v>
       </c>
       <c r="G22">
-        <v>24.05206833434654</v>
+        <v>25.36905394244592</v>
       </c>
       <c r="H22">
-        <v>1.709782196280645</v>
+        <v>1.684389332162987</v>
       </c>
       <c r="I22">
-        <v>2.577142676925357</v>
+        <v>2.536604865645259</v>
       </c>
       <c r="J22">
-        <v>9.017769922047995</v>
+        <v>8.103076987171667</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.523280919046871</v>
+        <v>10.6415044392557</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>8.704570513088472</v>
       </c>
       <c r="N22">
-        <v>7.768370365219528</v>
+        <v>6.478311283900223</v>
       </c>
       <c r="O22">
-        <v>16.30918463356656</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.981554021331032</v>
       </c>
       <c r="Q22">
-        <v>15.0336067392688</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>16.42018052692996</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>14.0456087405816</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.26655343119814</v>
+        <v>27.26519166263289</v>
       </c>
       <c r="C23">
-        <v>15.98152346647791</v>
+        <v>16.37059801644215</v>
       </c>
       <c r="D23">
-        <v>6.112323706471963</v>
+        <v>6.213674798081319</v>
       </c>
       <c r="E23">
-        <v>8.362572854168963</v>
+        <v>8.252721653646239</v>
       </c>
       <c r="F23">
-        <v>21.15824742944773</v>
+        <v>20.0314557246359</v>
       </c>
       <c r="G23">
-        <v>23.92540443056075</v>
+        <v>24.46769098386355</v>
       </c>
       <c r="H23">
-        <v>1.791582884665673</v>
+        <v>1.756846495995585</v>
       </c>
       <c r="I23">
-        <v>2.637816581361887</v>
+        <v>2.585285406798363</v>
       </c>
       <c r="J23">
-        <v>9.034241379286835</v>
+        <v>8.365128241149037</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.515304765672951</v>
+        <v>10.75192724829165</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>8.800107840829995</v>
       </c>
       <c r="N23">
-        <v>7.686535312163796</v>
+        <v>6.471152860067733</v>
       </c>
       <c r="O23">
-        <v>16.05363076053284</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.895836650464549</v>
       </c>
       <c r="Q23">
-        <v>15.0261871429688</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>16.15911210487799</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>14.16555219818589</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.27603655002152</v>
+        <v>25.29235097116406</v>
       </c>
       <c r="C24">
-        <v>15.19767490227586</v>
+        <v>15.49475531067727</v>
       </c>
       <c r="D24">
-        <v>5.942007006566984</v>
+        <v>5.978677860767538</v>
       </c>
       <c r="E24">
-        <v>8.331599835828628</v>
+        <v>8.239405905709148</v>
       </c>
       <c r="F24">
-        <v>20.87496109365023</v>
+        <v>20.18173969356792</v>
       </c>
       <c r="G24">
-        <v>23.39910859849906</v>
+        <v>22.09489939486837</v>
       </c>
       <c r="H24">
-        <v>2.108834145162036</v>
+        <v>2.041808666854473</v>
       </c>
       <c r="I24">
-        <v>2.893953469452687</v>
+        <v>2.802629109584106</v>
       </c>
       <c r="J24">
-        <v>9.09113650244965</v>
+        <v>9.182534258520278</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.48412742922293</v>
+        <v>11.13784046658549</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>9.091735977124365</v>
       </c>
       <c r="N24">
-        <v>7.380373587542947</v>
+        <v>6.442152496273726</v>
       </c>
       <c r="O24">
-        <v>15.05573428378825</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.577046156605739</v>
       </c>
       <c r="Q24">
-        <v>14.98292318622875</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>15.14028421916303</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>14.45689856847512</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.9358712776674</v>
+        <v>22.96736918600703</v>
       </c>
       <c r="C25">
-        <v>14.31100705387631</v>
+        <v>14.4245942910658</v>
       </c>
       <c r="D25">
-        <v>5.756870097416635</v>
+        <v>5.791503379132216</v>
       </c>
       <c r="E25">
-        <v>8.297560995957273</v>
+        <v>8.221666278735428</v>
       </c>
       <c r="F25">
-        <v>20.61519091623203</v>
+        <v>20.03577884233998</v>
       </c>
       <c r="G25">
-        <v>22.89992853414875</v>
+        <v>21.59534976770562</v>
       </c>
       <c r="H25">
-        <v>2.465192508617175</v>
+        <v>2.372940875548359</v>
       </c>
       <c r="I25">
-        <v>3.184568072330581</v>
+        <v>3.060574113950021</v>
       </c>
       <c r="J25">
-        <v>9.169338483950556</v>
+        <v>9.303273965274512</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.448760416327659</v>
+        <v>11.48909753022749</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>9.349376102055357</v>
       </c>
       <c r="N25">
-        <v>7.038116112955907</v>
+        <v>6.404227387807973</v>
       </c>
       <c r="O25">
-        <v>13.90238429540211</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.225997987483812</v>
       </c>
       <c r="Q25">
-        <v>14.97453721649211</v>
+        <v>13.96580359283555</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>14.52729885126841</v>
       </c>
     </row>
   </sheetData>
